--- a/biology/Histoire de la zoologie et de la botanique/Edward_Palmer_(botaniste)/Edward_Palmer_(botaniste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edward_Palmer_(botaniste)/Edward_Palmer_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward Palmer est un médecin et un botaniste américain d’origine britannique, né le 12 janvier 1831 à Hockwold cum Wilton dans le Norfolk et mort le 10 avril 1911 à Washington.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s’installe aux États-Unis en 1850[1]. Il est chirurgien dans l’armée américaine de 1862 à 1867 et est en poste dans le Colorado, au Kansas et en Arizona. De 1862 à 1910, il collecte des plantes en Arizona, en Californie et au Mexique. Il fait paraître en 1885 List of Plants collected in S.W. Chihuahua.... Asa Gray (1810-1888) lui dédie en 1876 le genre Palmerella de la famille des Campanulaceae.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s’installe aux États-Unis en 1850. Il est chirurgien dans l’armée américaine de 1862 à 1867 et est en poste dans le Colorado, au Kansas et en Arizona. De 1862 à 1910, il collecte des plantes en Arizona, en Californie et au Mexique. Il fait paraître en 1885 List of Plants collected in S.W. Chihuahua.... Asa Gray (1810-1888) lui dédie en 1876 le genre Palmerella de la famille des Campanulaceae.
 </t>
         </is>
       </c>
